--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMake\unity\projects\Navigation-test\Assets\NumericalSimulation\Res\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30912642-80AC-4B3E-B205-2DF6AB16DCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B36E53B-E310-436E-AD85-2FFA3CE34B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,7 +589,7 @@
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -816,31 +816,31 @@
         <v>38</v>
       </c>
       <c r="C4">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="D4">
         <v>200</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>4</v>
       </c>
       <c r="I4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -881,31 +881,31 @@
         <v>67</v>
       </c>
       <c r="C5">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="D5">
         <v>200</v>
       </c>
       <c r="E5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H5">
         <v>16</v>
       </c>
       <c r="I5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K5">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L5">
         <v>5</v>
@@ -964,13 +964,13 @@
         <v>6</v>
       </c>
       <c r="I6">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J6">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -1011,7 +1011,7 @@
         <v>40</v>
       </c>
       <c r="C7">
-        <v>6400</v>
+        <v>8000</v>
       </c>
       <c r="D7">
         <v>160</v>
@@ -1025,7 +1025,7 @@
         <v>41</v>
       </c>
       <c r="C8">
-        <v>9600</v>
+        <v>10400</v>
       </c>
       <c r="D8">
         <v>160</v>
@@ -1039,7 +1039,7 @@
         <v>42</v>
       </c>
       <c r="C9">
-        <v>9600</v>
+        <v>10400</v>
       </c>
       <c r="D9">
         <v>160</v>
@@ -1067,7 +1067,7 @@
         <v>68</v>
       </c>
       <c r="C11">
-        <v>4800</v>
+        <v>5200</v>
       </c>
       <c r="D11">
         <v>80</v>
@@ -1080,6 +1080,63 @@
       <c r="B12" t="s">
         <v>53</v>
       </c>
+      <c r="C12">
+        <v>11200</v>
+      </c>
+      <c r="D12">
+        <v>140</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>53</v>
+      </c>
+      <c r="H12">
+        <v>16</v>
+      </c>
+      <c r="I12">
+        <v>32</v>
+      </c>
+      <c r="J12">
+        <v>24</v>
+      </c>
+      <c r="K12">
+        <v>52</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>-1</v>
+      </c>
+      <c r="P12">
+        <v>-1</v>
+      </c>
+      <c r="Q12">
+        <v>-1</v>
+      </c>
+      <c r="R12">
+        <v>-1</v>
+      </c>
+      <c r="S12">
+        <v>-1</v>
+      </c>
+      <c r="T12">
+        <v>80</v>
+      </c>
+      <c r="U12">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1088,6 +1145,63 @@
       <c r="B13" t="s">
         <v>54</v>
       </c>
+      <c r="C13">
+        <v>14000</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+      <c r="E13">
+        <v>37</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>39</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>24</v>
+      </c>
+      <c r="J13">
+        <v>18</v>
+      </c>
+      <c r="K13">
+        <v>36</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>-1</v>
+      </c>
+      <c r="P13">
+        <v>-1</v>
+      </c>
+      <c r="Q13">
+        <v>-1</v>
+      </c>
+      <c r="R13">
+        <v>-1</v>
+      </c>
+      <c r="S13">
+        <v>-1</v>
+      </c>
+      <c r="T13">
+        <v>80</v>
+      </c>
+      <c r="U13">
+        <v>60</v>
+      </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1096,6 +1210,63 @@
       <c r="B14" t="s">
         <v>55</v>
       </c>
+      <c r="C14">
+        <v>11000</v>
+      </c>
+      <c r="D14">
+        <v>200</v>
+      </c>
+      <c r="E14">
+        <v>32</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>38</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+      <c r="I14">
+        <v>16</v>
+      </c>
+      <c r="J14">
+        <v>22</v>
+      </c>
+      <c r="K14">
+        <v>28</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>-1</v>
+      </c>
+      <c r="P14">
+        <v>-1</v>
+      </c>
+      <c r="Q14">
+        <v>-1</v>
+      </c>
+      <c r="R14">
+        <v>-1</v>
+      </c>
+      <c r="S14">
+        <v>-1</v>
+      </c>
+      <c r="T14">
+        <v>40</v>
+      </c>
+      <c r="U14">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1137,31 +1308,31 @@
         <v>60</v>
       </c>
       <c r="C19">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="D19">
         <v>200</v>
       </c>
       <c r="E19">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F19">
         <v>8</v>
       </c>
       <c r="G19">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <v>14</v>
       </c>
       <c r="I19">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J19">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K19">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L19">
         <v>5</v>
@@ -1214,16 +1385,16 @@
         <v>16</v>
       </c>
       <c r="G20">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>4</v>
       </c>
       <c r="I20">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J20">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K20">
         <v>40</v>

--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMake\unity\projects\Navigation-test\Assets\NumericalSimulation\Res\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B36E53B-E310-436E-AD85-2FFA3CE34B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93226F2-88CD-486C-B512-E7329E5571D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>兵种名称</t>
   </si>
@@ -73,9 +73,6 @@
     <t>精度</t>
   </si>
   <si>
-    <t>远程杀伤</t>
-  </si>
-  <si>
     <t>价格</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
   </si>
   <si>
     <t>accuracy</t>
-  </si>
-  <si>
-    <t>rangeDamage</t>
   </si>
   <si>
     <t>cost</t>
@@ -234,6 +228,22 @@
   </si>
   <si>
     <t>驼鹿骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程杀伤（普通）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程杀伤（破甲）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rangeNormal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rangeArmor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -600,13 +610,15 @@
     <col min="8" max="8" width="17.109375" customWidth="1"/>
     <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.44140625" customWidth="1"/>
-    <col min="19" max="19" width="13.5546875" customWidth="1"/>
-    <col min="20" max="21" width="14.88671875" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" customWidth="1"/>
+    <col min="19" max="19" width="17.21875" customWidth="1"/>
+    <col min="20" max="20" width="16.5546875" customWidth="1"/>
+    <col min="21" max="22" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -660,160 +672,169 @@
         <v>16</v>
       </c>
       <c r="S1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" t="s">
         <v>49</v>
       </c>
-      <c r="V1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="V2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="T2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="W3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>10000</v>
@@ -831,7 +852,7 @@
         <v>36</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>23</v>
@@ -852,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="O4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>-1</v>
@@ -867,18 +888,21 @@
         <v>-1</v>
       </c>
       <c r="T4">
+        <v>-1</v>
+      </c>
+      <c r="U4">
         <v>30</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>10000</v>
@@ -896,7 +920,7 @@
         <v>50</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I5">
         <v>23</v>
@@ -917,7 +941,7 @@
         <v>5</v>
       </c>
       <c r="O5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>-1</v>
@@ -932,18 +956,21 @@
         <v>-1</v>
       </c>
       <c r="T5">
+        <v>-1</v>
+      </c>
+      <c r="U5">
         <v>40</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>12800</v>
@@ -961,7 +988,7 @@
         <v>42</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I6">
         <v>22</v>
@@ -982,7 +1009,7 @@
         <v>5</v>
       </c>
       <c r="O6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>-1</v>
@@ -997,18 +1024,21 @@
         <v>-1</v>
       </c>
       <c r="T6">
+        <v>-1</v>
+      </c>
+      <c r="U6">
         <v>80</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>8000</v>
@@ -1016,13 +1046,67 @@
       <c r="D7">
         <v>160</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>36</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>23</v>
+      </c>
+      <c r="J7">
+        <v>11</v>
+      </c>
+      <c r="K7">
+        <v>16</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>12</v>
+      </c>
+      <c r="S7">
+        <v>16</v>
+      </c>
+      <c r="T7">
+        <v>6</v>
+      </c>
+      <c r="U7">
+        <v>30</v>
+      </c>
+      <c r="V7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>10400</v>
@@ -1030,13 +1114,67 @@
       <c r="D8">
         <v>160</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>32</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>19</v>
+      </c>
+      <c r="J8">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>30</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>12</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>19</v>
+      </c>
+      <c r="S8">
+        <v>20</v>
+      </c>
+      <c r="T8">
+        <v>10</v>
+      </c>
+      <c r="U8">
+        <v>30</v>
+      </c>
+      <c r="V8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>10400</v>
@@ -1044,13 +1182,67 @@
       <c r="D9">
         <v>160</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>37</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>34</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>26</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>32</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>16</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>22</v>
+      </c>
+      <c r="S9">
+        <v>21</v>
+      </c>
+      <c r="T9">
+        <v>11</v>
+      </c>
+      <c r="U9">
+        <v>30</v>
+      </c>
+      <c r="V9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>9600</v>
@@ -1058,13 +1250,67 @@
       <c r="D10">
         <v>120</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>44</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>42</v>
+      </c>
+      <c r="H10">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>31</v>
+      </c>
+      <c r="K10">
+        <v>40</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>-1</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>28</v>
+      </c>
+      <c r="S10">
+        <v>16</v>
+      </c>
+      <c r="T10">
+        <v>20</v>
+      </c>
+      <c r="U10">
+        <v>30</v>
+      </c>
+      <c r="V10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11">
         <v>5200</v>
@@ -1072,13 +1318,16 @@
       <c r="D11">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <v>11200</v>
@@ -1096,7 +1345,7 @@
         <v>53</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I12">
         <v>32</v>
@@ -1117,7 +1366,7 @@
         <v>5</v>
       </c>
       <c r="O12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>-1</v>
@@ -1132,18 +1381,21 @@
         <v>-1</v>
       </c>
       <c r="T12">
+        <v>-1</v>
+      </c>
+      <c r="U12">
         <v>80</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13">
         <v>14000</v>
@@ -1161,7 +1413,7 @@
         <v>39</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I13">
         <v>24</v>
@@ -1182,7 +1434,7 @@
         <v>5</v>
       </c>
       <c r="O13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>-1</v>
@@ -1197,18 +1449,21 @@
         <v>-1</v>
       </c>
       <c r="T13">
+        <v>-1</v>
+      </c>
+      <c r="U13">
         <v>80</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <v>11000</v>
@@ -1226,7 +1481,7 @@
         <v>38</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I14">
         <v>16</v>
@@ -1247,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="O14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>-1</v>
@@ -1262,50 +1517,122 @@
         <v>-1</v>
       </c>
       <c r="T14">
+        <v>-1</v>
+      </c>
+      <c r="U14">
         <v>40</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="C15">
+        <v>10400</v>
+      </c>
+      <c r="D15">
+        <v>160</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>32</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>19</v>
+      </c>
+      <c r="J15">
+        <v>14</v>
+      </c>
+      <c r="K15">
+        <v>30</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>12</v>
+      </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>19</v>
+      </c>
+      <c r="S15">
+        <v>20</v>
+      </c>
+      <c r="T15">
+        <v>10</v>
+      </c>
+      <c r="U15">
+        <v>30</v>
+      </c>
+      <c r="V15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>200</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19">
         <v>11000</v>
@@ -1323,7 +1650,7 @@
         <v>38</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I19">
         <v>16</v>
@@ -1344,7 +1671,7 @@
         <v>5</v>
       </c>
       <c r="O19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>-1</v>
@@ -1359,18 +1686,21 @@
         <v>-1</v>
       </c>
       <c r="T19">
+        <v>-1</v>
+      </c>
+      <c r="U19">
         <v>40</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>201</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20">
         <v>13000</v>
@@ -1388,7 +1718,7 @@
         <v>38</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I20">
         <v>20</v>
@@ -1409,7 +1739,7 @@
         <v>5</v>
       </c>
       <c r="O20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>-1</v>
@@ -1424,50 +1754,182 @@
         <v>-1</v>
       </c>
       <c r="T20">
+        <v>-1</v>
+      </c>
+      <c r="U20">
         <v>40</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>202</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="C21">
+        <v>8800</v>
+      </c>
+      <c r="D21">
+        <v>160</v>
+      </c>
+      <c r="E21">
+        <v>28</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>28</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>18</v>
+      </c>
+      <c r="J21">
+        <v>14</v>
+      </c>
+      <c r="K21">
+        <v>22</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>20</v>
+      </c>
+      <c r="P21">
+        <v>10</v>
+      </c>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+      <c r="R21">
+        <v>12</v>
+      </c>
+      <c r="S21">
+        <v>14</v>
+      </c>
+      <c r="T21">
+        <v>20</v>
+      </c>
+      <c r="U21">
+        <v>30</v>
+      </c>
+      <c r="V21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>203</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="C22">
+        <v>7200</v>
+      </c>
+      <c r="D22">
+        <v>120</v>
+      </c>
+      <c r="E22">
+        <v>32</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+      <c r="H22">
+        <v>14</v>
+      </c>
+      <c r="I22">
+        <v>16</v>
+      </c>
+      <c r="J22">
+        <v>22</v>
+      </c>
+      <c r="K22">
+        <v>28</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <v>8</v>
+      </c>
+      <c r="P22">
+        <v>10</v>
+      </c>
+      <c r="Q22">
+        <v>15</v>
+      </c>
+      <c r="R22">
+        <v>8</v>
+      </c>
+      <c r="S22">
+        <v>16</v>
+      </c>
+      <c r="T22">
+        <v>36</v>
+      </c>
+      <c r="U22">
+        <v>30</v>
+      </c>
+      <c r="V22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>204</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>205</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>206</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMake\unity\projects\Navigation-test\Assets\NumericalSimulation\Res\Excel2Json2Cs\Output\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMake\unity\projects\newGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93226F2-88CD-486C-B512-E7329E5571D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C636B73B-EB9B-4E25-8B3E-E5C8F7A39860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,7 +599,7 @@
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -831,7 +831,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>1102</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>1103</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>1104</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>1105</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5</v>
+        <v>1106</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6</v>
+        <v>1107</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7</v>
+        <v>1108</v>
       </c>
       <c r="B11" t="s">
         <v>66</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>100</v>
+        <v>2101</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>101</v>
+        <v>2102</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>102</v>
+        <v>2103</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>103</v>
+        <v>2104</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>104</v>
+        <v>2105</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>105</v>
+        <v>2106</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>106</v>
+        <v>2107</v>
       </c>
       <c r="B18" t="s">
         <v>57</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>200</v>
+        <v>3101</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>201</v>
+        <v>3102</v>
       </c>
       <c r="B20" t="s">
         <v>59</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>202</v>
+        <v>3103</v>
       </c>
       <c r="B21" t="s">
         <v>60</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>203</v>
+        <v>3104</v>
       </c>
       <c r="B22" t="s">
         <v>61</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>204</v>
+        <v>3105</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>205</v>
+        <v>3106</v>
       </c>
       <c r="B24" t="s">
         <v>63</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>206</v>
+        <v>3107</v>
       </c>
       <c r="B25" t="s">
         <v>64</v>

--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMake\unity\projects\newGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C636B73B-EB9B-4E25-8B3E-E5C8F7A39860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6646DDFF-561F-437B-B7ED-B311D68A28D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -599,7 +599,7 @@
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -864,7 +864,7 @@
         <v>16</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M4">
         <v>5</v>
@@ -932,7 +932,7 @@
         <v>26</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M5">
         <v>5</v>
@@ -1000,7 +1000,7 @@
         <v>42</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M6">
         <v>5</v>
@@ -1068,7 +1068,7 @@
         <v>16</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -1136,7 +1136,7 @@
         <v>30</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M8">
         <v>5</v>
@@ -1204,7 +1204,7 @@
         <v>32</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M9">
         <v>5</v>
@@ -1272,7 +1272,7 @@
         <v>40</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M10">
         <v>5</v>
@@ -1318,6 +1318,9 @@
       <c r="D11">
         <v>80</v>
       </c>
+      <c r="L11">
+        <v>15</v>
+      </c>
       <c r="O11">
         <v>0</v>
       </c>
@@ -1357,7 +1360,7 @@
         <v>52</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M12">
         <v>5</v>
@@ -1425,7 +1428,7 @@
         <v>36</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M13">
         <v>5</v>
@@ -1493,7 +1496,7 @@
         <v>28</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M14">
         <v>5</v>
@@ -1561,7 +1564,7 @@
         <v>30</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M15">
         <v>5</v>
@@ -1601,6 +1604,9 @@
       <c r="B16" t="s">
         <v>55</v>
       </c>
+      <c r="L16">
+        <v>15</v>
+      </c>
       <c r="O16">
         <v>0</v>
       </c>
@@ -1612,6 +1618,9 @@
       <c r="B17" t="s">
         <v>56</v>
       </c>
+      <c r="L17">
+        <v>15</v>
+      </c>
       <c r="O17">
         <v>0</v>
       </c>
@@ -1623,6 +1632,9 @@
       <c r="B18" t="s">
         <v>57</v>
       </c>
+      <c r="L18">
+        <v>15</v>
+      </c>
       <c r="O18">
         <v>0</v>
       </c>
@@ -1662,7 +1674,7 @@
         <v>28</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M19">
         <v>5</v>
@@ -1730,7 +1742,7 @@
         <v>40</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M20">
         <v>5</v>
@@ -1798,7 +1810,7 @@
         <v>22</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M21">
         <v>5</v>
@@ -1866,7 +1878,7 @@
         <v>28</v>
       </c>
       <c r="L22">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M22">
         <v>5</v>
@@ -1906,6 +1918,9 @@
       <c r="B23" t="s">
         <v>62</v>
       </c>
+      <c r="L23">
+        <v>15</v>
+      </c>
       <c r="O23">
         <v>0</v>
       </c>
@@ -1917,6 +1932,9 @@
       <c r="B24" t="s">
         <v>63</v>
       </c>
+      <c r="L24">
+        <v>15</v>
+      </c>
       <c r="O24">
         <v>0</v>
       </c>
@@ -1927,6 +1945,9 @@
       </c>
       <c r="B25" t="s">
         <v>64</v>
+      </c>
+      <c r="L25">
+        <v>15</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMake\unity\projects\newGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6646DDFF-561F-437B-B7ED-B311D68A28D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA863E4-4992-4D30-975C-431A8FA79BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -599,7 +599,7 @@
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -864,7 +864,7 @@
         <v>16</v>
       </c>
       <c r="L4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M4">
         <v>5</v>
@@ -932,7 +932,7 @@
         <v>26</v>
       </c>
       <c r="L5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M5">
         <v>5</v>
@@ -1000,7 +1000,7 @@
         <v>42</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M6">
         <v>5</v>
@@ -1068,7 +1068,7 @@
         <v>16</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -1136,7 +1136,7 @@
         <v>30</v>
       </c>
       <c r="L8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M8">
         <v>5</v>
@@ -1204,7 +1204,7 @@
         <v>32</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M9">
         <v>5</v>
@@ -1272,7 +1272,7 @@
         <v>40</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M10">
         <v>5</v>
@@ -1319,7 +1319,7 @@
         <v>80</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1360,7 +1360,7 @@
         <v>52</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M12">
         <v>5</v>
@@ -1428,7 +1428,7 @@
         <v>36</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M13">
         <v>5</v>
@@ -1496,7 +1496,7 @@
         <v>28</v>
       </c>
       <c r="L14">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M14">
         <v>5</v>
@@ -1564,7 +1564,7 @@
         <v>30</v>
       </c>
       <c r="L15">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M15">
         <v>5</v>
@@ -1605,7 +1605,7 @@
         <v>55</v>
       </c>
       <c r="L16">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>56</v>
       </c>
       <c r="L17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>57</v>
       </c>
       <c r="L18">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>28</v>
       </c>
       <c r="L19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M19">
         <v>5</v>
@@ -1742,7 +1742,7 @@
         <v>40</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M20">
         <v>5</v>
@@ -1810,7 +1810,7 @@
         <v>22</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M21">
         <v>5</v>
@@ -1878,7 +1878,7 @@
         <v>28</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M22">
         <v>5</v>
@@ -1919,7 +1919,7 @@
         <v>62</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>63</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>64</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMake\unity\projects\newGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA863E4-4992-4D30-975C-431A8FA79BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B08615-F918-4152-B4F1-E79639F0C57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
   <si>
     <t>兵种名称</t>
   </si>
@@ -244,6 +244,18 @@
   </si>
   <si>
     <t>rangeArmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackRange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -609,14 +621,14 @@
     <col min="7" max="7" width="19.5546875" customWidth="1"/>
     <col min="8" max="8" width="17.109375" customWidth="1"/>
     <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" customWidth="1"/>
-    <col min="18" max="18" width="11.44140625" customWidth="1"/>
-    <col min="19" max="19" width="17.21875" customWidth="1"/>
-    <col min="20" max="20" width="16.5546875" customWidth="1"/>
-    <col min="21" max="22" width="14.88671875" customWidth="1"/>
+    <col min="10" max="11" width="17.44140625" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" customWidth="1"/>
+    <col min="20" max="20" width="17.21875" customWidth="1"/>
+    <col min="21" max="21" width="16.5546875" customWidth="1"/>
+    <col min="22" max="23" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -648,46 +660,49 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
       <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>67</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>68</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>46</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>47</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -719,46 +734,49 @@
         <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>49</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>50</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -790,7 +808,7 @@
         <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="L3" t="s">
         <v>42</v>
@@ -828,8 +846,11 @@
       <c r="W3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1101</v>
       </c>
@@ -861,23 +882,23 @@
         <v>11</v>
       </c>
       <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>16</v>
       </c>
-      <c r="L4">
-        <v>12</v>
-      </c>
       <c r="M4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N4">
         <v>5</v>
       </c>
       <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
         <v>0</v>
       </c>
-      <c r="P4">
-        <v>-1</v>
-      </c>
       <c r="Q4">
         <v>-1</v>
       </c>
@@ -891,13 +912,16 @@
         <v>-1</v>
       </c>
       <c r="U4">
+        <v>-1</v>
+      </c>
+      <c r="V4">
         <v>30</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1102</v>
       </c>
@@ -929,23 +953,23 @@
         <v>11</v>
       </c>
       <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>26</v>
       </c>
-      <c r="L5">
-        <v>12</v>
-      </c>
       <c r="M5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N5">
         <v>5</v>
       </c>
       <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
         <v>0</v>
       </c>
-      <c r="P5">
-        <v>-1</v>
-      </c>
       <c r="Q5">
         <v>-1</v>
       </c>
@@ -959,13 +983,16 @@
         <v>-1</v>
       </c>
       <c r="U5">
+        <v>-1</v>
+      </c>
+      <c r="V5">
         <v>40</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1103</v>
       </c>
@@ -997,23 +1024,23 @@
         <v>36</v>
       </c>
       <c r="K6">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N6">
         <v>5</v>
       </c>
       <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
         <v>0</v>
       </c>
-      <c r="P6">
-        <v>-1</v>
-      </c>
       <c r="Q6">
         <v>-1</v>
       </c>
@@ -1027,13 +1054,16 @@
         <v>-1</v>
       </c>
       <c r="U6">
+        <v>-1</v>
+      </c>
+      <c r="V6">
         <v>80</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1104</v>
       </c>
@@ -1065,43 +1095,46 @@
         <v>11</v>
       </c>
       <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>16</v>
       </c>
-      <c r="L7">
-        <v>12</v>
-      </c>
       <c r="M7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N7">
         <v>5</v>
       </c>
       <c r="O7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P7">
         <v>10</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="S7">
+        <v>12</v>
+      </c>
+      <c r="T7">
         <v>16</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>6</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>30</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1105</v>
       </c>
@@ -1133,43 +1166,46 @@
         <v>14</v>
       </c>
       <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>30</v>
       </c>
-      <c r="L8">
-        <v>12</v>
-      </c>
       <c r="M8">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N8">
         <v>5</v>
       </c>
       <c r="O8">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P8">
+        <v>12</v>
+      </c>
+      <c r="Q8">
         <v>10</v>
       </c>
-      <c r="Q8">
-        <v>5</v>
-      </c>
       <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
         <v>19</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>20</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>10</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>30</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1106</v>
       </c>
@@ -1201,43 +1237,46 @@
         <v>20</v>
       </c>
       <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>32</v>
       </c>
-      <c r="L9">
-        <v>12</v>
-      </c>
       <c r="M9">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N9">
         <v>5</v>
       </c>
       <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
         <v>16</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>10</v>
       </c>
-      <c r="Q9">
-        <v>5</v>
-      </c>
       <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9">
         <v>22</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>21</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>11</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>30</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1107</v>
       </c>
@@ -1269,43 +1308,46 @@
         <v>31</v>
       </c>
       <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>40</v>
       </c>
-      <c r="L10">
-        <v>12</v>
-      </c>
       <c r="M10">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N10">
         <v>5</v>
       </c>
       <c r="O10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P10">
+        <v>-1</v>
+      </c>
+      <c r="Q10">
         <v>10</v>
       </c>
-      <c r="Q10">
-        <v>5</v>
-      </c>
       <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10">
         <v>28</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>16</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>20</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>30</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1108</v>
       </c>
@@ -1318,14 +1360,17 @@
       <c r="D11">
         <v>80</v>
       </c>
-      <c r="L11">
-        <v>12</v>
-      </c>
-      <c r="O11">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>12</v>
+      </c>
+      <c r="P11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2101</v>
       </c>
@@ -1357,23 +1402,23 @@
         <v>24</v>
       </c>
       <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>52</v>
       </c>
-      <c r="L12">
-        <v>12</v>
-      </c>
       <c r="M12">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N12">
         <v>5</v>
       </c>
       <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
         <v>0</v>
       </c>
-      <c r="P12">
-        <v>-1</v>
-      </c>
       <c r="Q12">
         <v>-1</v>
       </c>
@@ -1387,13 +1432,16 @@
         <v>-1</v>
       </c>
       <c r="U12">
+        <v>-1</v>
+      </c>
+      <c r="V12">
         <v>80</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2102</v>
       </c>
@@ -1425,23 +1473,23 @@
         <v>18</v>
       </c>
       <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>36</v>
       </c>
-      <c r="L13">
-        <v>12</v>
-      </c>
       <c r="M13">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N13">
         <v>5</v>
       </c>
       <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
         <v>0</v>
       </c>
-      <c r="P13">
-        <v>-1</v>
-      </c>
       <c r="Q13">
         <v>-1</v>
       </c>
@@ -1455,13 +1503,16 @@
         <v>-1</v>
       </c>
       <c r="U13">
+        <v>-1</v>
+      </c>
+      <c r="V13">
         <v>80</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2103</v>
       </c>
@@ -1493,23 +1544,23 @@
         <v>22</v>
       </c>
       <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>28</v>
       </c>
-      <c r="L14">
-        <v>12</v>
-      </c>
       <c r="M14">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N14">
         <v>5</v>
       </c>
       <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
         <v>0</v>
       </c>
-      <c r="P14">
-        <v>-1</v>
-      </c>
       <c r="Q14">
         <v>-1</v>
       </c>
@@ -1523,13 +1574,16 @@
         <v>-1</v>
       </c>
       <c r="U14">
+        <v>-1</v>
+      </c>
+      <c r="V14">
         <v>40</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2104</v>
       </c>
@@ -1561,85 +1615,97 @@
         <v>14</v>
       </c>
       <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>30</v>
       </c>
-      <c r="L15">
-        <v>12</v>
-      </c>
       <c r="M15">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N15">
         <v>5</v>
       </c>
       <c r="O15">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P15">
+        <v>12</v>
+      </c>
+      <c r="Q15">
         <v>10</v>
       </c>
-      <c r="Q15">
-        <v>5</v>
-      </c>
       <c r="R15">
+        <v>5</v>
+      </c>
+      <c r="S15">
         <v>19</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>20</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>10</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>30</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2105</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
       </c>
-      <c r="L16">
-        <v>12</v>
-      </c>
-      <c r="O16">
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>12</v>
+      </c>
+      <c r="P16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2106</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
       </c>
-      <c r="L17">
-        <v>12</v>
-      </c>
-      <c r="O17">
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12</v>
+      </c>
+      <c r="P17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2107</v>
       </c>
       <c r="B18" t="s">
         <v>57</v>
       </c>
-      <c r="L18">
-        <v>12</v>
-      </c>
-      <c r="O18">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>12</v>
+      </c>
+      <c r="P18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3101</v>
       </c>
@@ -1671,23 +1737,23 @@
         <v>22</v>
       </c>
       <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
         <v>28</v>
       </c>
-      <c r="L19">
-        <v>12</v>
-      </c>
       <c r="M19">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N19">
         <v>5</v>
       </c>
       <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19">
         <v>0</v>
       </c>
-      <c r="P19">
-        <v>-1</v>
-      </c>
       <c r="Q19">
         <v>-1</v>
       </c>
@@ -1701,13 +1767,16 @@
         <v>-1</v>
       </c>
       <c r="U19">
+        <v>-1</v>
+      </c>
+      <c r="V19">
         <v>40</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3102</v>
       </c>
@@ -1739,23 +1808,23 @@
         <v>30</v>
       </c>
       <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
         <v>40</v>
       </c>
-      <c r="L20">
-        <v>12</v>
-      </c>
       <c r="M20">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N20">
         <v>5</v>
       </c>
       <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20">
         <v>0</v>
       </c>
-      <c r="P20">
-        <v>-1</v>
-      </c>
       <c r="Q20">
         <v>-1</v>
       </c>
@@ -1769,13 +1838,16 @@
         <v>-1</v>
       </c>
       <c r="U20">
+        <v>-1</v>
+      </c>
+      <c r="V20">
         <v>40</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3103</v>
       </c>
@@ -1807,43 +1879,46 @@
         <v>14</v>
       </c>
       <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
         <v>22</v>
       </c>
-      <c r="L21">
-        <v>12</v>
-      </c>
       <c r="M21">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N21">
         <v>5</v>
       </c>
       <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
         <v>20</v>
-      </c>
-      <c r="P21">
-        <v>10</v>
       </c>
       <c r="Q21">
         <v>10</v>
       </c>
       <c r="R21">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S21">
+        <v>12</v>
+      </c>
+      <c r="T21">
         <v>14</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>20</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>30</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3104</v>
       </c>
@@ -1875,81 +1950,93 @@
         <v>22</v>
       </c>
       <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
         <v>28</v>
       </c>
-      <c r="L22">
-        <v>12</v>
-      </c>
       <c r="M22">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N22">
         <v>5</v>
       </c>
       <c r="O22">
+        <v>5</v>
+      </c>
+      <c r="P22">
         <v>8</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>10</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>15</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>8</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>16</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>36</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>30</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3105</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
       </c>
-      <c r="L23">
-        <v>12</v>
-      </c>
-      <c r="O23">
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>12</v>
+      </c>
+      <c r="P23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3106</v>
       </c>
       <c r="B24" t="s">
         <v>63</v>
       </c>
-      <c r="L24">
-        <v>12</v>
-      </c>
-      <c r="O24">
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>12</v>
+      </c>
+      <c r="P24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3107</v>
       </c>
       <c r="B25" t="s">
         <v>64</v>
       </c>
-      <c r="L25">
-        <v>12</v>
-      </c>
-      <c r="O25">
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12</v>
+      </c>
+      <c r="P25">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMake\unity\projects\newGame\Assets\Res\File\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B08615-F918-4152-B4F1-E79639F0C57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643B12A8-3E76-4C02-BF96-4258FE925E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
   <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L7">
         <v>16</v>
@@ -1166,7 +1166,7 @@
         <v>14</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L8">
         <v>30</v>
@@ -1237,7 +1237,7 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L9">
         <v>32</v>
@@ -1308,7 +1308,7 @@
         <v>31</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L10">
         <v>40</v>
@@ -1615,7 +1615,7 @@
         <v>14</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L15">
         <v>30</v>
@@ -1879,7 +1879,7 @@
         <v>14</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L21">
         <v>22</v>
@@ -1950,7 +1950,7 @@
         <v>22</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L22">
         <v>28</v>

--- a/Assets/Res/File/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
+++ b/Assets/Res/File/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMake\unity\projects\Navigation-test\Assets\NumericalSimulation\Res\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0640DCD2-C082-466F-AD5A-7A96A4EE1C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAECF71-046E-4DE4-ACEA-36ED31AAC82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>兵种名称</t>
   </si>
@@ -201,6 +201,13 @@
   </si>
   <si>
     <t>黄巾骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackRange</t>
+  </si>
+  <si>
+    <t>攻击范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -566,14 +573,14 @@
     <col min="7" max="7" width="19.5546875" customWidth="1"/>
     <col min="8" max="8" width="17.109375" customWidth="1"/>
     <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" customWidth="1"/>
-    <col min="18" max="18" width="11.44140625" customWidth="1"/>
-    <col min="19" max="19" width="17.21875" customWidth="1"/>
-    <col min="20" max="20" width="16.5546875" customWidth="1"/>
-    <col min="21" max="22" width="14.88671875" customWidth="1"/>
+    <col min="10" max="11" width="17.44140625" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" customWidth="1"/>
+    <col min="20" max="20" width="17.21875" customWidth="1"/>
+    <col min="21" max="21" width="16.5546875" customWidth="1"/>
+    <col min="22" max="23" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -605,46 +612,49 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>45</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>46</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>40</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>41</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -676,46 +686,49 @@
         <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>43</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -747,7 +760,7 @@
         <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
         <v>36</v>
@@ -785,8 +798,11 @@
       <c r="W3" t="s">
         <v>36</v>
       </c>
+      <c r="X3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1101</v>
       </c>
@@ -818,11 +834,11 @@
         <v>22</v>
       </c>
       <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>28</v>
       </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
       <c r="M4">
         <v>5</v>
       </c>
@@ -830,11 +846,11 @@
         <v>5</v>
       </c>
       <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
         <v>0</v>
       </c>
-      <c r="P4">
-        <v>-1</v>
-      </c>
       <c r="Q4">
         <v>-1</v>
       </c>
@@ -848,13 +864,16 @@
         <v>-1</v>
       </c>
       <c r="U4">
+        <v>-1</v>
+      </c>
+      <c r="V4">
         <v>40</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1102</v>
       </c>
@@ -886,11 +905,11 @@
         <v>14</v>
       </c>
       <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>30</v>
       </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
       <c r="M5">
         <v>5</v>
       </c>
@@ -898,31 +917,34 @@
         <v>5</v>
       </c>
       <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
         <v>12</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>10</v>
       </c>
-      <c r="Q5">
-        <v>5</v>
-      </c>
       <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
         <v>19</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>20</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>10</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>30</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1103</v>
       </c>
@@ -954,11 +976,11 @@
         <v>24</v>
       </c>
       <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>52</v>
       </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
       <c r="M6">
         <v>5</v>
       </c>
@@ -966,11 +988,11 @@
         <v>5</v>
       </c>
       <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
         <v>0</v>
       </c>
-      <c r="P6">
-        <v>-1</v>
-      </c>
       <c r="Q6">
         <v>-1</v>
       </c>
@@ -984,13 +1006,16 @@
         <v>-1</v>
       </c>
       <c r="U6">
+        <v>-1</v>
+      </c>
+      <c r="V6">
         <v>80</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2101</v>
       </c>
@@ -1022,11 +1047,11 @@
         <v>22</v>
       </c>
       <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>28</v>
       </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
       <c r="M7">
         <v>5</v>
       </c>
@@ -1034,11 +1059,11 @@
         <v>5</v>
       </c>
       <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
         <v>0</v>
       </c>
-      <c r="P7">
-        <v>-1</v>
-      </c>
       <c r="Q7">
         <v>-1</v>
       </c>
@@ -1052,13 +1077,16 @@
         <v>-1</v>
       </c>
       <c r="U7">
+        <v>-1</v>
+      </c>
+      <c r="V7">
         <v>40</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2102</v>
       </c>
@@ -1090,11 +1118,11 @@
         <v>14</v>
       </c>
       <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>30</v>
       </c>
-      <c r="L8">
-        <v>5</v>
-      </c>
       <c r="M8">
         <v>5</v>
       </c>
@@ -1102,31 +1130,34 @@
         <v>5</v>
       </c>
       <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
         <v>12</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>10</v>
       </c>
-      <c r="Q8">
-        <v>5</v>
-      </c>
       <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
         <v>19</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>20</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>10</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>30</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2103</v>
       </c>
@@ -1158,11 +1189,11 @@
         <v>24</v>
       </c>
       <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>52</v>
       </c>
-      <c r="L9">
-        <v>5</v>
-      </c>
       <c r="M9">
         <v>5</v>
       </c>
@@ -1170,11 +1201,11 @@
         <v>5</v>
       </c>
       <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
         <v>0</v>
       </c>
-      <c r="P9">
-        <v>-1</v>
-      </c>
       <c r="Q9">
         <v>-1</v>
       </c>
@@ -1188,9 +1219,12 @@
         <v>-1</v>
       </c>
       <c r="U9">
+        <v>-1</v>
+      </c>
+      <c r="V9">
         <v>80</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>60</v>
       </c>
     </row>
